--- a/xlsx/_baidu_植物油_intext.xlsx
+++ b/xlsx/_baidu_植物油_intext.xlsx
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1586,7 +1586,7 @@
         <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1632,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:7">
